--- a/input.xlsx
+++ b/input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_projects\Leroy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D95A3C-1395-4FAB-AF73-3B71240611E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417857AC-04AF-432D-AAAE-F7058661AD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73226733-1F7B-4650-8748-CC3ACD5E6CCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$457</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="453">
   <si>
     <t>https://kaliningrad.leroymerlin.ru/product/radiator-rifar-monolit-500-100-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-12876448/</t>
   </si>
@@ -92,6 +94,1308 @@
   </si>
   <si>
     <t>Новороссийск</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-moyki-d-115-mm-18545914</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/prisoedinenie-k-unitazu-110-mm-45-gradusov-12188231</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/armatura-universalnaya-s-bokovym-podvodom-wc-ab-633-hromirovannaya-knopka-10996331</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-kuhonnoy-moyki-orio-d-50-s-otvodom-82678040</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-35-l-aquaverso-es-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669546</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-10-l-81954698</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/prisoedinenie-k-unitazu-so-smeshcheniem-d-110-mm-18558555</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kolonka-gazovaya-superlux-10l-cf-ng-new-13402017</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/perehodnik-uglovoy-dlya-ploskih-kruglyh-vozduhovodov-equation-55x110-mm-d100-mm-plastik-18155801</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-1-m-10052920</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979197</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-9-kvt-18745351</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-v-3-kvt-83300102</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-105-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669571</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/probka-universalnaya-wirquin-matreshka-plastik-15881293</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kolonka-gazovaya-oasis-14330916</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-s-reviziey-18551011</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-d-110-mm-18558547</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-6-kvt-84997648</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735975</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vypusk-dlya-rakoviny-1-1-4-s-nerzhaveyushchey-setkoy-18545990</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/koleno-gorizontalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-90-gradusov-plastik-18155828</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/manzheta-dlya-fanovoy-truby-mcalpine-s-obratnym-klapanom-82422785</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735981</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-82261529</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-12-kvt-18745369</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138512</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-turbo-d100-mm-36-db-120-m-ch-obratnyy-klapan-cvet-belyy-83212147</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/truba-gofrirovannaya-wirquin-s-gaykoy-1h1-2h40-50x800-mm-12186201</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/klapan-zalivnoy-equation-s-bokovoy-podvodkoy-vody-3-8-82265371</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/magistralnyy-korpus-10sl-dlya-holodnoy-vody-18653106</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-55-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669554</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-1-2-89078534</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-45-kvt-18745334</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-4-180-mm-13715048</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-1-mkm-89078629</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-vytyazhnoy-disc-d100-84005172</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/manzheta-dlya-unitaza-so-smeshcheniem-cvet-belyy-18558580</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/truba-gofrirovannaya-wirquin-40x40-50x800-mm-12186228</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-180-mm-13714993</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-chernyy-81979189</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vozduhovod-kruglyy-equation-d100-mm-05-m-10051768</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-4-130-mm-82313953</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-100-l-ariston-velis-tech-inox-pw-abse100-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837358</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-8-180-mm-13715072</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-3-4-89078538</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-tech-inox-pw-abse-80-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837351</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-4-sekcii-bokovoe-podklyuchenie-cvet-belyy-81979196</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735982</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979198</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/koleno-vertikalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-plastik-18155810</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-style-inox-r-50-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837309</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-15-m-10052955</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/koleno-dlya-kruglyh-vozduhovodov-equation-d100-mm-90-gradusov-plastik-18155772</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-6-kvt-18745342</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-d100-mm-25-db-90-m-ch-obratnyy-klapan-cvet-belyy-83212133</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vypusk-orio-dlya-kuhonnoy-moyki-1-1-2-18549579</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d4-d100-mm-35-db-90-m3-ch-cvet-belyy-84391212</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-tech-inox-pw-abse-50-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837349</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735984</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-15-kvt-81944811</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vypusk-equation-dlya-moyki-90-mm-s-perelivom-18551003</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-vanny-s-vypuskom-18545949</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d5-d125-mm-36-db-140-m3-ch-cvet-belyy-84391213</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/prisoedinenie-k-unitazu-110-mm-pryamoe-12188178</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735976</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-5-d125-mm-36-db-190-m3-ch-cvet-belyy-82270090</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-5-mkm-89078630</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735983</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-bez-pereliva-klik-klak-hromirovannyy-82261527</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-2-180-mm-13795287</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-era-quadro-4-d100-mm-35-db-90-m3-ch-cvet-belyy-84306829</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-130-mm-82313954</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/manzheta-dlya-unitaza-pryamaya-cvet-belyy-18558571</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-rakoviny-wirquin-neo-air-sliv-40-mm-82096589</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/prisoedinenie-k-unitazu-110-mm-87-gradusov-12188290</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-85-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669562</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-4-180-mm-13714969</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sol-tabletirovannaya-barer-universalnaya-25-kg-17895568</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-6-180-mm-13715056</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/termostaticheskaya-golovka-valtec-s-vynosnym-pogruzhnym-datchikom-temperatury-vt301100-82564549</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-nit-5-mkm-89078601</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-poluavtomat-hrom-18551020</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-380-v-12-kvt-84997650</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-4-d100-mm-35-db-107-m3-ch-cvet-belyy-82270089</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735974</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-30-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138509</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979200</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-9-kvt-84997649</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735973</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-14-l-81954699</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/sifon-dlya-moyki-neo-air-s-vypuskom-40-mm-82119397</t>
+  </si>
+  <si>
+    <t>https://leroymerlin.ru/product/truba-gofrirovannaya-vidage-32x900-mm-metall-13879472</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/prisoedinenie-k-unitazu-110x45-mm-82007604</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-era-quadro-4-d100-mm-35-db-90-m3-ch-cvet-belyy-84306829</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/klapan-zalivnoy-equation-s-bokovoy-podvodkoy-vody-3-8-82265371</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/magistralnyy-korpus-10sl-dlya-holodnoy-vody-18653106</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-kuhonnoy-moyki-orio-d-50-s-otvodom-82678040</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-35-l-aquaverso-es-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669546</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735981</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-d-110-mm-18558547</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-10-l-81954698</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/koleno-gorizontalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-90-gradusov-plastik-18155828</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/prisoedinenie-k-unitazu-so-smeshcheniem-d-110-mm-18558555</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-20-mkm-89078599</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/perehodnik-uglovoy-dlya-ploskih-kruglyh-vozduhovodov-equation-55x110-mm-d100-mm-plastik-18155801</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-1-m-10052920</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979197</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sol-tabletirovannaya-barer-universalnaya-25-kg-17895568</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-9-kvt-18745351</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-v-3-kvt-83300102</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979200</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735975</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-45-kvt-18745334</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-moyki-neo-air-s-vypuskom-40-mm-82119397</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/koleno-dlya-kruglyh-vozduhovodov-equation-d100-mm-90-gradusov-plastik-18155772</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-82261529</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-6-kvt-84997648</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-turbo-d100-mm-36-db-120-m-ch-obratnyy-klapan-cvet-belyy-83212147</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-s-gaykoy-1h1-2h40-50x800-mm-12186201</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-bez-pereliva-klik-klak-hromirovannyy-82261527</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735974</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-d100-mm-25-db-90-m-ch-obratnyy-klapan-cvet-belyy-83212133</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-180-mm-13714993</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-1-2-89078534</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/truba-gofrirovannaya-vidage-32x900-mm-metall-13879472</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-2-180-mm-13795287</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-40x40-50x800-mm-12186228</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vozduhovod-kruglyy-equation-d100-mm-05-m-10051768</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-110-mm-82007603</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-18551097</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-style-inox-r-80-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837320</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-1-mkm-89078629</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-8-180-mm-13715072</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-3-4-89078538</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-4-sekcii-bokovoe-podklyuchenie-cvet-belyy-81979196</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-380-v-12-kvt-84997650</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735982</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-chernyy-81979189</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-vanny-s-vypuskom-18545949</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/koleno-vertikalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-plastik-18155810</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-s-reviziey-18551011</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-orio-dlya-kuhonnoy-moyki-1-1-2-18549579</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d4-d100-mm-35-db-90-m3-ch-cvet-belyy-84391212</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735984</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-tech-inox-pw-abse-50-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837349</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d5-d125-mm-36-db-140-m3-ch-cvet-belyy-84391213</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-30-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138509</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-15-kvt-81944811</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-equation-dlya-moyki-90-mm-s-perelivom-18551003</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-12-kvt-18745369</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vypusk-dlya-rakoviny-1-1-4-s-nerzhaveyushchey-setkoy-18545990</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735976</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-5-d125-mm-36-db-190-m3-ch-cvet-belyy-82270090</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-5-mkm-89078630</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-rakoviny-wirquin-neo-air-sliv-40-mm-82096589</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735983</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-65-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138511</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/manzheta-dlya-unitaza-so-smeshcheniem-cvet-belyy-18558580</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/probka-universalnaya-wirquin-matreshka-plastik-15881293</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-4-d100-mm-35-db-107-m3-ch-cvet-belyy-82270089</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-9-kvt-84997649</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-15-m-10052955</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979198</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/armatura-universalnaya-s-bokovym-podvodom-wc-ab-633-hromirovannaya-knopka-10996331</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/manzheta-dlya-unitaza-pryamaya-cvet-belyy-18558571</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735973</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-moyki-d-115-mm-18545914</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-nit-5-mkm-89078601</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138512</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/prisoedinenie-k-unitazu-110mm-87-gradusov-82007605</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-poluavtomat-hrom-18551020</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-6-kvt-18745342</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-4-180-mm-13714969</t>
+  </si>
+  <si>
+    <t>https://kaliningrad.leroymerlin.ru/product/ventilyator-vytyazhnoy-disc-d100-84005172</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-dlya-rakoviny-1-1-4-s-nerzhaveyushchey-setkoy-18545990</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/prisoedinenie-k-unitazu-110x45-mm-82007604</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-kuhonnoy-moyki-orio-d-50-s-otvodom-82678040</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-82261529</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-v-3-kvt-83300102</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-orio-dlya-kuhonnoy-moyki-1-1-2-18549579</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-10-l-81954698</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-moyki-d-115-mm-18545914</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/prisoedinenie-k-unitazu-so-smeshcheniem-d-110-mm-18558555</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/prisoedinenie-k-unitazu-110mm-87-gradusov-82007605</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/perehodnik-uglovoy-dlya-ploskih-kruglyh-vozduhovodov-equation-55x110-mm-d100-mm-plastik-18155801</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-1-m-10052920</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979197</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-tech-inox-pw-abse-50-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837349</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-9-kvt-18745351</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-6-kvt-84997648</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/manzheta-dlya-unitaza-so-smeshcheniem-cvet-belyy-18558580</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979198</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-d-110-mm-18558547</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-8-180-mm-13715072</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735975</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/koleno-vertikalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-plastik-18155810</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/koleno-gorizontalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-90-gradusov-plastik-18155828</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735981</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-rakoviny-wirquin-neo-air-sliv-40-mm-82096589</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/klapan-zalivnoy-equation-s-bokovoy-podvodkoy-vody-3-8-82265371</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-4-d100-mm-35-db-107-m3-ch-cvet-belyy-82270089</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-5-d125-mm-36-db-190-m3-ch-cvet-belyy-82270090</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-vanny-s-vypuskom-18545949</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-era-quadro-4-d100-mm-35-db-90-m3-ch-cvet-belyy-84306829</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kolonka-gazovaya-oasis-14330916</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-style-inox-r-50-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837309</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-turbo-d100-mm-36-db-120-m-ch-obratnyy-klapan-cvet-belyy-83212147</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-s-gaykoy-1h1-2h40-50x800-mm-12186201</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-1-2-89078534</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-style-inox-r-80-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837320</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-45-kvt-18745334</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-40x40-50x800-mm-12186228</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-55-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669554</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-180-mm-13714993</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vozduhovod-kruglyy-equation-d100-mm-05-m-10051768</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-2-180-mm-13795287</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138512</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-3-4-89078538</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-tech-inox-pw-abse-80-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837351</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-4-sekcii-bokovoe-podklyuchenie-cvet-belyy-81979196</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-380-v-12-kvt-84997650</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735976</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/magistralnyy-korpus-10sl-dlya-holodnoy-vody-18653106</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-poluavtomat-hrom-18551020</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735982</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-equation-dlya-moyki-90-mm-s-perelivom-18551003</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/nasos-cirkulyacionnyy-grundfos-ups-25-40-180-mm-18529543</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d5-d125-mm-36-db-140-m3-ch-cvet-belyy-84391213</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-85-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669562</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-chernyy-81979189</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/koleno-dlya-kruglyh-vozduhovodov-equation-d100-mm-90-gradusov-plastik-18155772</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735984</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d4-d100-mm-35-db-90-m3-ch-cvet-belyy-84391212</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-s-reviziey-18551011</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-15-kvt-81944811</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-vytyazhnoy-disc-d100-84005172</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-12-kvt-18745369</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-9-kvt-84997649</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-5-mkm-89078630</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-105-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669571</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735983</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735973</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kolonka-gazovaya-superlux-10l-cf-ng-new-13402017</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-bez-pereliva-klik-klak-hromirovannyy-82261527</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-style-r-80-24-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-89837300</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/truba-gofrirovannaya-vidage-32x900-mm-metall-13879472</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-110-mm-82007603</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-6-kvt-18745342</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-15-m-10052955</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-4-180-mm-13714969</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/manzheta-dlya-fanovoy-truby-mcalpine-s-obratnym-klapanom-82422785</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/armatura-universalnaya-s-bokovym-podvodom-wc-ab-633-hromirovannaya-knopka-10996331</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/manzheta-dlya-unitaza-pryamaya-cvet-belyy-18558571</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-65-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138511</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-nit-5-mkm-89078601</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-30-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138509</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735974</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-1-mkm-89078629</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-d100-mm-25-db-90-m-ch-obratnyy-klapan-cvet-belyy-83212133</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979200</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/sol-tabletirovannaya-barer-universalnaya-25-kg-17895568</t>
+  </si>
+  <si>
+    <t>https://novorossiysk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-18551097</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/mufta-perehodnaya-pnd-unio-3-4h20-mm-naruzhnaya-rezba-82149007</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/prisoedinenie-k-unitazu-110x45-mm-82007604</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vozduhovod-kruglyy-equation-d100-mm-05-m-10051768</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-kuhonnoy-moyki-orio-d-50-s-otvodom-82678040</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-35-l-aquaverso-es-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669546</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d4-d100-mm-35-db-90-m3-ch-cvet-belyy-84391212</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-5-mkm-89078630</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735982</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/prisoedinenie-k-unitazu-so-smeshcheniem-d-110-mm-18558555</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/perehodnik-uglovoy-dlya-ploskih-kruglyh-vozduhovodov-equation-55x110-mm-d100-mm-plastik-18155801</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-1-m-10052920</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979197</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-30-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138509</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-d100-mm-25-db-90-m-ch-obratnyy-klapan-cvet-belyy-83212133</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-9-kvt-18745351</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-15-kvt-81944811</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-180-mm-13714993</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-s-gaykoy-1h1-2h40-50x800-mm-12186201</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-v-3-kvt-83300102</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/koleno-gorizontalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-90-gradusov-plastik-18155828</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-d-110-mm-18558547</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-turbo-d100-mm-36-db-120-m-ch-obratnyy-klapan-cvet-belyy-83212147</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735975</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-nit-5-mkm-89078601</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735981</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/koleno-vertikalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-plastik-18155810</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-82261529</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/mufta-perehodnaya-pnd-unio-1-2h25-mm-vnutrennyaya-rezba-82149002</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/klapan-zalivnoy-equation-s-bokovoy-podvodkoy-vody-3-8-82265371</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979198</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-45-kvt-18745334</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-bez-pereliva-klik-klak-hromirovannyy-82261527</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-40x40-50x800-mm-12186228</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-5-d125-mm-36-db-190-m3-ch-cvet-belyy-82270090</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/probka-universalnaya-wirquin-matreshka-plastik-15881293</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/manzheta-dlya-fanovoy-truby-mcalpine-s-obratnym-klapanom-82422785</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-s-reviziey-18551011</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-12-kvt-18745369</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-3-4-89078538</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-4-sekcii-bokovoe-podklyuchenie-cvet-belyy-81979196</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-2-180-mm-13795287</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/koleno-dlya-kruglyh-vozduhovodov-equation-d100-mm-90-gradusov-plastik-18155772</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-orio-dlya-kuhonnoy-moyki-1-1-2-18549579</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-equation-dlya-moyki-90-mm-s-perelivom-18551003</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d5-d125-mm-36-db-140-m3-ch-cvet-belyy-84391213</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735976</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735983</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-dlya-rakoviny-1-1-4-s-nerzhaveyushchey-setkoy-18545990</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/magistralnyy-korpus-10sl-dlya-holodnoy-vody-18653106</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/manzheta-dlya-unitaza-so-smeshcheniem-cvet-belyy-18558580</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735984</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-6-kvt-84997648</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-moyki-d-115-mm-18545914</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-rakoviny-wirquin-neo-air-sliv-40-mm-82096589</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-15-m-10052955</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-1-2-89078534</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-18551097</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-chernyy-81979189</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/manzheta-dlya-unitaza-pryamaya-cvet-belyy-18558571</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-vanny-s-vypuskom-18545949</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-4-d100-mm-35-db-107-m3-ch-cvet-belyy-82270089</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-380-v-12-kvt-84997650</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-era-quadro-4-d100-mm-35-db-90-m3-ch-cvet-belyy-84306829</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/prisoedinenie-k-unitazu-110mm-87-gradusov-82007605</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/armatura-universalnaya-s-bokovym-podvodom-wc-ab-633-hromirovannaya-knopka-10996331</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979200</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-65-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138511</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/ventilyator-vytyazhnoy-disc-d100-84005172</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-poluavtomat-hrom-18551020</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-110-mm-82007603</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735973</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138512</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-20-mkm-89078599</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735974</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/truba-gofrirovannaya-vidage-32x900-mm-metall-13879472</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/sifon-dlya-moyki-neo-air-s-vypuskom-40-mm-82119397</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-9-kvt-84997649</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-1-mkm-89078629</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kolonka-gazovaya-superlux-10l-cf-ng-new-13402017</t>
+  </si>
+  <si>
+    <t>https://omsk.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-6-kvt-18745342</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/prisoedinenie-k-unitazu-110x45-mm-82007604</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-6-kvt-84997648</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-kuhonnoy-moyki-orio-d-50-s-otvodom-82678040</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/koleno-gorizontalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-90-gradusov-plastik-18155828</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-10-l-81954698</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/prisoedinenie-k-unitazu-so-smeshcheniem-d-110-mm-18558555</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/nasos-cirkulyacionnyy-grundfos-ups-25-40-180-mm-18529543</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/perehodnik-uglovoy-dlya-ploskih-kruglyh-vozduhovodov-equation-55x110-mm-d100-mm-plastik-18155801</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-1-m-10052920</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979197</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d5-d125-mm-36-db-140-m3-ch-cvet-belyy-84391213</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-9-kvt-18745351</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-v-3-kvt-83300102</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/armatura-universalnaya-s-bokovym-podvodom-wc-ab-633-hromirovannaya-knopka-10996331</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-d-110-mm-18558547</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735975</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735981</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vozduhovod-kruglyy-equation-d100-mm-05-m-10051768</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-82261529</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-turbo-d100-mm-36-db-120-m-ch-obratnyy-klapan-cvet-belyy-83212147</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/klapan-zalivnoy-equation-s-bokovoy-podvodkoy-vody-3-8-82265371</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-30-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138509</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-6-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735973</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-s-gaykoy-1h1-2h40-50x800-mm-12186201</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-tech-inox-pw-abse-50-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837349</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/prisoedinenie-k-unitazu-pryamoe-110-mm-82007603</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-45-kvt-18745334</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-3-4-89078538</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-55-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669554</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/truba-gofrirovannaya-wirquin-40x40-50x800-mm-12186228</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kolonka-gazovaya-superlux-10l-cf-ng-new-13402017</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-6-180-mm-13714993</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-chernyy-81979189</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735984</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-32-8-180-mm-13715072</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/truba-gofrirovannaya-vidage-32x900-mm-metall-13879472</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/manzheta-dlya-unitaza-so-smeshcheniem-cvet-belyy-18558580</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-dlya-rakoviny-1-1-4-s-nerzhaveyushchey-setkoy-18545990</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-10-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735983</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-tech-inox-pw-abse-80-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837351</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-4-sekcii-bokovoe-podklyuchenie-cvet-belyy-81979196</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-bimetal-500-80-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735982</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-100-l-ariston-velis-tech-inox-pw-abse100-25-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837358</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-poluavtomat-hrom-18551020</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/koleno-vertikalnoe-dlya-ploskih-vozduhovodov-equation-55x110-mm-plastik-18155810</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-style-inox-r-50-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837309</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/koleno-dlya-kruglyh-vozduhovodov-equation-d100-mm-90-gradusov-plastik-18155772</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/prisoedinenie-k-unitazu-110mm-87-gradusov-82007605</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-orio-dlya-kuhonnoy-moyki-1-1-2-18549579</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-auramax-d4-d100-mm-35-db-90-m3-ch-cvet-belyy-84391212</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-rakoviny-wirquin-neo-air-sliv-40-mm-82096589</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kolonka-gazovaya-oasis-14330916</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-2-180-mm-13795287</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-vanny-equation-s-vypuskom-s-reviziey-18551011</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-15-kvt-81944811</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-equation-dlya-moyki-90-mm-s-perelivom-18551003</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-380-v-12-kvt-18745369</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735976</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-5-d125-mm-36-db-190-m3-ch-cvet-belyy-82270090</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-5-mkm-89078630</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-380-v-12-kvt-84997650</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/magistralnyy-korpus-10sl-dlya-holodnoy-vody-18653106</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-style-inox-r-80-24-kvt-vertikalnyy-nerzhaveyushchaya-stal-mokryy-ten-89837320</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138512</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979198</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-105-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669571</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-vanny-s-vypuskom-18545949</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-80-l-ariston-velis-style-r-80-24-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-89837300</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vozduhovod-ploskiy-equation-55x110-mm-15-m-10052955</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/korpus-filtra-equation-sl10-dlya-holodnoy-vody-rezba-1-2-89078534</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-era-quadro-4-d100-mm-35-db-90-m3-ch-cvet-belyy-84306829</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sol-tabletirovannaya-barer-universalnaya-25-kg-17895568</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-nit-5-mkm-89078601</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kolonka-gazovaya-ariston-fast-r-14-l-81954699</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-s-perelivom-18551097</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vypusk-equation-dlya-rakoviny-bez-pereliva-klik-klak-hromirovannyy-82261527</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/manzheta-dlya-unitaza-pryamaya-cvet-belyy-18558571</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/termostaticheskaya-golovka-valtec-s-vynosnym-pogruzhnym-datchikom-temperatury-vt301100-82564549</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/sifon-dlya-moyki-d-115-mm-18545914</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-65-l-ariston-blu1-r-abs-slim-2k-2-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-82138511</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-50-l-ariston-velis-style-r-50-24-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-89837294</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-kanalnyy-osevoy-vytyazhnoy-auramax-vp-4-d100-mm-35-db-107-m3-ch-cvet-belyy-82270089</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/nasos-cirkulyacionnyy-oasis-25-4-180-mm-13714969</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-monlan-500-80-alyuminiy-8-sekciy-bokovoe-podklyuchenie-cvet-belyy-82735974</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-vytyazhnoy-disc-d100-84005172</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-teplodom-i-trm-silver-220-v-9-kvt-84997649</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/radiator-royal-thermo-biliner-500-87-bimetall-12-sekciy-bokovoe-podklyuchenie-cvet-belyy-81979200</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kartridzh-mehanicheskoy-ochistki-equation-sl10-dlya-holodnoy-vody-1-mkm-89078629</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/ventilyator-osevoy-vytyazhnoy-diciti-silent-4c-d100-mm-25-db-90-m-ch-obratnyy-klapan-cvet-belyy-83212133</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/vodonagrevatel-nakopitelnyy-85-l-aquaverso-er-15-kvt-vertikalnyy-emalirovannaya-stal-mokryy-ten-18669562</t>
+  </si>
+  <si>
+    <t>https://krasnodar.leroymerlin.ru/product/kotel-elektricheskiy-alterm-220-380-v-6-kvt-18745342</t>
   </si>
 </sst>
 </file>
@@ -471,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5876FA0-0775-4E7C-B774-2B9E9252F11C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +1925,2253 @@
         <v>750</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C411" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C412" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C413" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C414" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C415" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C416" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C417" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C418" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C419" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C420" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C421" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C422" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C423" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C424" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C425" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C426" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C427" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C428" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C429" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C430" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C431" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C432" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C433" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C435" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C436" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C437" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C438" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C440" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C441" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C442" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C443" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C444" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C445" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C447" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C448" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E457" xr:uid="{C5876FA0-0775-4E7C-B774-2B9E9252F11C}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{ACC97776-A4B8-4D0D-AF00-0E2C66B768E7}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{FC5A82D1-BDFB-49FF-B120-BDD189EC6110}"/>
